--- a/biology/Médecine/Claude-Melchior_Cornette/Claude-Melchior_Cornette.xlsx
+++ b/biology/Médecine/Claude-Melchior_Cornette/Claude-Melchior_Cornette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude-Melchior Cornette est une chimiste et médecin français, membre de l'Académie royale des sciences, né à Besançon le 1er mars 1744, et mort à Rome le 11 mai 1794 (à 50 ans).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude-Melchior Cornette est né à Besançon où il a suivi les premiers degrés à l'université de sa ville natale, il s'est ensuite rendu à Paris où il a été distingué par Lassone, médecin du roi Louis XVI, qui l'a engagé à étudier la chimie. En 1763-1765, il a étudié la chimie avec Pierre Joseph Macquer et Antoine Baumé, puis la pharmacie avec Guillaume-François Rouelle. En 1775-1778, il a fait des études pour devenir docteur de la Faculté de Médecine de Montpellier.
 Il a présenté plusieurs mémoires à l'Académie royale des sciences, dont un pour augmenter la production de salpêtre en France, et à la Société royale de médecine. Plusieurs ont été rédigés par Lassone fils.
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mémoire sur la décomposition de plusieurs sels neutres à base d'alkalis fixes et volatils, par l'acide marin, Académie royale des sciences, 1778, p. 44-60 (lire en ligne)
 Second mémoire sur l'action comparée de l'acide nitreux et de l'acide marin sur les sels virrioliques à base terreuse, Académie royale des sciences, 1778, p. 333-346 (lire en ligne)
